--- a/01計画/レビュー結果記録_計画_合否.xlsx
+++ b/01計画/レビュー結果記録_計画_合否.xlsx
@@ -3,15 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7558B16E-27A0-46A9-9685-77EC643C477D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794054C6-C1E8-4E28-B263-BF11B2D62CF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
-    <sheet name="レビュー結果" sheetId="8" r:id="rId2"/>
-    <sheet name="概要サンプル" sheetId="4" r:id="rId3"/>
-    <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId4"/>
+    <sheet name="レビュー結果" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -123,43 +121,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YYYY/MM/DD (曜日)
-HH:MM-HH:MM</t>
-    <rPh sb="12" eb="14">
-      <t>ヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造化分析</t>
-  </si>
-  <si>
-    <t>田口</t>
-    <rPh sb="0" eb="2">
-      <t>タグチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中、山田、藤田、田口</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造化設計へ移行するための課題・対応策を明確にする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビューア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田、藤田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フジタ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -183,31 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DFD2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス仕様「2.1 補充発注する」</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロセス仕様「2.2 検収する」</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>書記</t>
     <rPh sb="0" eb="2">
       <t>ショキ</t>
@@ -242,47 +179,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>反復N 第n回レビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復1 第2回レビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>場所</t>
     <rPh sb="0" eb="2">
       <t>バショカイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Florida</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012/05/21 (月)
-13:00-13:30</t>
-    <rPh sb="12" eb="13">
-      <t>ゲツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -433,6 +332,86 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復1 第1回レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/02 (火)
+14:10-14:25</t>
+    <rPh sb="12" eb="13">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュールームA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画立案</t>
+  </si>
+  <si>
+    <t>大石</t>
+    <rPh sb="0" eb="2">
+      <t>オオイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上さん、鈴木、秀田、大石、千野、川辺</t>
+    <rPh sb="0" eb="2">
+      <t>アゼガミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒデタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オオイシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チノ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カワベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書、WBSガントチャートの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -764,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,9 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,6 +796,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,38 +835,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,8 +1210,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A17" activeCellId="1" sqref="C33 A17:B17"/>
+    <sheetView view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1247,167 +1223,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="18" t="str">
+      <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1418,6 +1407,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1433,500 +1433,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"指摘,質問,その他"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.28999999999999998" right="0.28999999999999998" top="0.8" bottom="0.98425196850393704" header="0.39" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="18">
-        <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"計画立案,要求分析,構造化分析,構造化設計,実装,テスト,その他"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1947,10 +1459,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1967,19 +1479,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G2" s="10">
         <v>43987</v>
@@ -1990,19 +1502,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G3" s="10">
         <v>43987</v>
@@ -2013,19 +1525,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -2197,6 +1709,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2366,22 +1893,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A79778E1-8A0D-4700-9555-1DB37A32EA7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2397,21 +1926,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01計画/レビュー結果記録_計画_合否.xlsx
+++ b/01計画/レビュー結果記録_計画_合否.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794054C6-C1E8-4E28-B263-BF11B2D62CF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E7F571-BAF7-4A96-A35A-E9AA390092FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -197,62 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>畔上さん</t>
-    <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第二反復までで機能追加（データベースも）。
-第三反復では新システムを考える。
-第一反復中に考えればよい。
-このままいくなら内容をかなり良くしないと。</t>
-    <rPh sb="0" eb="2">
-      <t>ダイニ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ダイサン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ダイイチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上流工程に重きを置いている。
 指摘特になし。</t>
     <rPh sb="0" eb="2">
@@ -272,30 +216,6 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>トク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復2で、新システム＋HTML
-同じようなものを作成。
-反復3で、新システム＋データベース</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>シン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,28 +291,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>畔上さん、鈴木、秀田、大石、千野、川辺</t>
-    <rPh sb="0" eb="2">
-      <t>アゼガミ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒデタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>オオイシ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チノ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カワベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>反復計画書</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
@@ -412,6 +310,129 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上、鈴木、秀田、大石、千野、川辺（敬称略）</t>
+    <rPh sb="0" eb="2">
+      <t>アゼガミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒデタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オオイシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チノ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カワベ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ケイショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上</t>
+    <rPh sb="0" eb="2">
+      <t>アゼガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二反復までで機能追加（データベースも）。
+第三反復では新システムを考える。
+第一反復中に考えればよい。
+変更しない場合、内容に高いこだわりが必要である。</t>
+    <rPh sb="0" eb="2">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上</t>
+    <rPh sb="0" eb="1">
+      <t>アゼ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復2で、類似の新システム＋HTML
+反復3で、反復2の内容にデータベースを紐づけする。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -796,50 +817,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,7 +1232,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1223,10 +1244,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
@@ -1235,78 +1256,78 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="30"/>
+      <c r="A2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="21"/>
       <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1315,74 +1336,74 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="21"/>
+      <c r="A10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -1397,6 +1418,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1407,17 +1439,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1438,7 +1459,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1474,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1485,13 +1506,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="10">
         <v>43987</v>
@@ -1505,16 +1526,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G3" s="10">
         <v>43987</v>
@@ -1528,16 +1549,16 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -1709,21 +1730,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1893,24 +1899,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A79778E1-8A0D-4700-9555-1DB37A32EA7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1926,4 +1930,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>